--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_12_12.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_12_12.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-41327.82779587943</v>
+        <v>-27601.46965846129</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11440654.64596091</v>
+        <v>9920049.137121977</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>25716287.27018666</v>
+        <v>24195681.76134771</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2559726.88013999</v>
+        <v>3384070.799559813</v>
       </c>
     </row>
     <row r="11">
@@ -8693,22 +8695,22 @@
         <v>135.370731907559</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8769,22 +8771,22 @@
         <v>93.17061249236157</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q12" t="n">
         <v>94.49434172313325</v>
@@ -8924,28 +8926,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9006,25 +9008,25 @@
         <v>93.17061249236157</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9088,16 +9090,16 @@
         <v>94.30397654773019</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P16" t="n">
         <v>101.5955875616828</v>
@@ -9164,22 +9166,22 @@
         <v>124.5190384721106</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O17" t="n">
         <v>117.8828208804077</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q17" t="n">
         <v>150.3839754851235</v>
@@ -9240,28 +9242,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9319,28 +9321,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9413,7 +9415,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -9477,16 +9479,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -9498,7 +9500,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9562,7 +9564,7 @@
         <v>94.30397654773019</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -9574,7 +9576,7 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q22" t="n">
         <v>65.34295837775146</v>
@@ -9635,28 +9637,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9714,28 +9716,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N24" t="n">
         <v>38.66169381481656</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9799,19 +9801,19 @@
         <v>94.30397654773019</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q25" t="n">
         <v>65.34295837775146</v>
@@ -9872,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -9890,7 +9892,7 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -9951,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -10036,19 +10038,19 @@
         <v>94.30397654773019</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q28" t="n">
         <v>65.34295837775146</v>
@@ -10112,7 +10114,7 @@
         <v>124.5190384721106</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -10130,7 +10132,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10188,16 +10190,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -10209,7 +10211,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10273,19 +10275,19 @@
         <v>94.30397654773019</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q31" t="n">
         <v>65.34295837775146</v>
@@ -10346,10 +10348,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L32" t="n">
         <v>130.6648563030561</v>
@@ -10364,7 +10366,7 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -10425,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10437,7 +10439,7 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10510,19 +10512,19 @@
         <v>94.30397654773019</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q34" t="n">
         <v>65.34295837775146</v>
@@ -10583,10 +10585,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -10604,10 +10606,10 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10665,7 +10667,7 @@
         <v>93.17061249236157</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10683,7 +10685,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10747,19 +10749,19 @@
         <v>94.30397654773019</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q37" t="n">
         <v>65.34295837775146</v>
@@ -10832,7 +10834,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -10899,10 +10901,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10987,16 +10989,16 @@
         <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q40" t="n">
         <v>65.34295837775146</v>
@@ -11057,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -11078,7 +11080,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11221,13 +11223,13 @@
         <v>94.30397654773019</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -11370,7 +11372,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -11397,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11452,10 +11454,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>94.30397654773019</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -11470,7 +11472,7 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
         <v>65.34295837775146</v>
@@ -23285,22 +23287,22 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>108.0327934026353</v>
@@ -23361,22 +23363,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -23516,28 +23518,28 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J14" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>108.0327934026353</v>
@@ -23598,25 +23600,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>78.03303713061706</v>
@@ -23680,16 +23682,16 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>92.09541281912071</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>81.96869489115805</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -23756,22 +23758,22 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -23832,28 +23834,28 @@
         <v>77.12765456497084</v>
       </c>
       <c r="J18" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>78.03303713061706</v>
@@ -23911,28 +23913,28 @@
         <v>146.4662571175369</v>
       </c>
       <c r="J19" t="n">
-        <v>105.873818686614</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K19" t="n">
-        <v>94.30397654773019</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>92.09541281912071</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>81.96869489115805</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>126.4887893424616</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R19" t="n">
         <v>163.8605191622716</v>
@@ -24005,7 +24007,7 @@
         <v>110.5750244233121</v>
       </c>
       <c r="O20" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>135.4597561231036</v>
@@ -24069,16 +24071,16 @@
         <v>77.12765456497084</v>
       </c>
       <c r="J21" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>80.29914934735042</v>
       </c>
       <c r="L21" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>38.66169381481656</v>
@@ -24090,7 +24092,7 @@
         <v>65.92768427608706</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R21" t="n">
         <v>78.03303713061706</v>
@@ -24154,7 +24156,7 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
         <v>92.09541281912071</v>
@@ -24166,7 +24168,7 @@
         <v>96.22962838366004</v>
       </c>
       <c r="P22" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>61.14583096471014</v>
@@ -24227,28 +24229,28 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J23" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>110.5750244233121</v>
       </c>
       <c r="O23" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>108.0327934026353</v>
@@ -24306,28 +24308,28 @@
         <v>77.12765456497084</v>
       </c>
       <c r="J24" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>78.03303713061706</v>
@@ -24391,19 +24393,19 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>92.09541281912071</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>81.96869489115805</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>61.14583096471014</v>
@@ -24464,7 +24466,7 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J26" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>135.370731907559</v>
@@ -24482,7 +24484,7 @@
         <v>117.8828208804077</v>
       </c>
       <c r="P26" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>150.3839754851235</v>
@@ -24543,7 +24545,7 @@
         <v>77.12765456497084</v>
       </c>
       <c r="J27" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>80.29914934735042</v>
@@ -24628,19 +24630,19 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>92.09541281912071</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>81.96869489115805</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>61.14583096471014</v>
@@ -24704,7 +24706,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>130.6648563030561</v>
@@ -24722,7 +24724,7 @@
         <v>135.4597561231036</v>
       </c>
       <c r="Q29" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>108.0327934026353</v>
@@ -24780,16 +24782,16 @@
         <v>77.12765456497084</v>
       </c>
       <c r="J30" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>61.18167021676314</v>
       </c>
       <c r="M30" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>38.66169381481656</v>
@@ -24801,7 +24803,7 @@
         <v>65.92768427608706</v>
       </c>
       <c r="Q30" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>78.03303713061706</v>
@@ -24865,19 +24867,19 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>92.09541281912071</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>81.96869489115805</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
         <v>61.14583096471014</v>
@@ -24938,10 +24940,10 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J32" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -24956,7 +24958,7 @@
         <v>117.8828208804077</v>
       </c>
       <c r="P32" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>150.3839754851235</v>
@@ -25017,7 +25019,7 @@
         <v>77.12765456497084</v>
       </c>
       <c r="J33" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>80.29914934735042</v>
@@ -25029,7 +25031,7 @@
         <v>51.84373129681028</v>
       </c>
       <c r="N33" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>57.81213424001893</v>
@@ -25102,19 +25104,19 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>92.09541281912071</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>81.96869489115805</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>61.14583096471014</v>
@@ -25175,10 +25177,10 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J35" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>130.6648563030561</v>
@@ -25196,10 +25198,10 @@
         <v>135.4597561231036</v>
       </c>
       <c r="Q35" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>173.7492132756177</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S35" t="n">
         <v>193.8433399116564</v>
@@ -25257,7 +25259,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>61.18167021676314</v>
@@ -25275,7 +25277,7 @@
         <v>65.92768427608706</v>
       </c>
       <c r="Q36" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>78.03303713061706</v>
@@ -25339,19 +25341,19 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>92.09541281912071</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>81.96869489115805</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>61.14583096471014</v>
@@ -25424,7 +25426,7 @@
         <v>113.4004983079896</v>
       </c>
       <c r="N38" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>117.8828208804077</v>
@@ -25491,10 +25493,10 @@
         <v>77.12765456497084</v>
       </c>
       <c r="J39" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>61.18167021676314</v>
@@ -25579,16 +25581,16 @@
         <v>90.4687457914608</v>
       </c>
       <c r="M40" t="n">
-        <v>92.09541281912071</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
         <v>81.96869489115805</v>
       </c>
       <c r="O40" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
         <v>61.14583096471014</v>
@@ -25649,7 +25651,7 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J41" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>135.370731907559</v>
@@ -25670,7 +25672,7 @@
         <v>135.4597561231036</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R41" t="n">
         <v>108.0327934026353</v>
@@ -25813,13 +25815,13 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>92.09541281912071</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>81.96869489115805</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
         <v>96.22962838366004</v>
@@ -25962,7 +25964,7 @@
         <v>108.7938786076111</v>
       </c>
       <c r="I45" t="n">
-        <v>87.25340171355576</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J45" t="n">
         <v>93.17061249236157</v>
@@ -25989,7 +25991,7 @@
         <v>94.49434172313325</v>
       </c>
       <c r="R45" t="n">
-        <v>123.5547069419379</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S45" t="n">
         <v>165.0641745378389</v>
@@ -26044,10 +26046,10 @@
         <v>146.4662571175369</v>
       </c>
       <c r="J46" t="n">
-        <v>72.23757736389061</v>
+        <v>105.873818686614</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L46" t="n">
         <v>90.4687457914608</v>
@@ -26062,7 +26064,7 @@
         <v>96.22962838366004</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q46" t="n">
         <v>61.14583096471014</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>210182.9338675742</v>
+        <v>342218.3213175621</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>179353.716777845</v>
+        <v>369755.2536367644</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>214770.6160437799</v>
+        <v>369755.2536367644</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>175184.9228091777</v>
+        <v>207960.9658420343</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>171042.1403343805</v>
+        <v>354352.1527345969</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>168173.4426533211</v>
+        <v>230720.7871041451</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>185518.9447124861</v>
+        <v>268473.3557156506</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>186375.0571363368</v>
+        <v>270648.2422229431</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>165932.4048119479</v>
+        <v>264626.5508534273</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>168173.4426533211</v>
+        <v>208624.6662921025</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>196035.189885332</v>
+        <v>203542.5840064923</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>159157.1217041803</v>
+        <v>153645.6562144557</v>
       </c>
     </row>
   </sheetData>
@@ -26320,40 +26322,40 @@
         <v>43558.90612181147</v>
       </c>
       <c r="E2" t="n">
-        <v>41237.07407234273</v>
+        <v>63871.71192091208</v>
       </c>
       <c r="F2" t="n">
-        <v>35952.06542838915</v>
+        <v>68592.32888991815</v>
       </c>
       <c r="G2" t="n">
-        <v>42023.53387397801</v>
+        <v>68592.32888991815</v>
       </c>
       <c r="H2" t="n">
-        <v>35237.41503376044</v>
+        <v>40856.16526796446</v>
       </c>
       <c r="I2" t="n">
-        <v>34527.22375236666</v>
+        <v>65951.79730668948</v>
       </c>
       <c r="J2" t="n">
-        <v>34035.4470070422</v>
+        <v>44757.84891289775</v>
       </c>
       <c r="K2" t="n">
-        <v>37008.9616457562</v>
+        <v>51229.71781772728</v>
       </c>
       <c r="L2" t="n">
-        <v>37155.72377555918</v>
+        <v>51602.55550469171</v>
       </c>
       <c r="M2" t="n">
-        <v>33651.26909137821</v>
+        <v>50570.26555563186</v>
       </c>
       <c r="N2" t="n">
-        <v>34035.4470070422</v>
+        <v>40969.94248797616</v>
       </c>
       <c r="O2" t="n">
-        <v>38811.74653252978</v>
+        <v>40098.72838187157</v>
       </c>
       <c r="P2" t="n">
-        <v>32489.79198718949</v>
+        <v>31544.96933180811</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>133100</v>
+        <v>133100.0000000001</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26424,40 +26426,40 @@
         <v>43558.90612181147</v>
       </c>
       <c r="E4" t="n">
-        <v>10870.40918458443</v>
+        <v>33505.04703315378</v>
       </c>
       <c r="F4" t="n">
-        <v>5585.400540630852</v>
+        <v>38225.66400215984</v>
       </c>
       <c r="G4" t="n">
-        <v>11656.86898621971</v>
+        <v>38225.66400215984</v>
       </c>
       <c r="H4" t="n">
-        <v>4870.750146002152</v>
+        <v>10489.50038020616</v>
       </c>
       <c r="I4" t="n">
-        <v>4160.558864608363</v>
+        <v>35585.13241893116</v>
       </c>
       <c r="J4" t="n">
-        <v>3668.782119283897</v>
+        <v>14391.18402513944</v>
       </c>
       <c r="K4" t="n">
-        <v>6642.296757997899</v>
+        <v>20863.05292996897</v>
       </c>
       <c r="L4" t="n">
-        <v>6789.058887800878</v>
+        <v>21235.8906169334</v>
       </c>
       <c r="M4" t="n">
-        <v>3284.604203619916</v>
+        <v>20203.60066787354</v>
       </c>
       <c r="N4" t="n">
-        <v>3668.782119283897</v>
+        <v>10603.27760021787</v>
       </c>
       <c r="O4" t="n">
-        <v>8445.081644771486</v>
+        <v>9732.063494113263</v>
       </c>
       <c r="P4" t="n">
-        <v>2123.127099431192</v>
+        <v>1178.304444049811</v>
       </c>
     </row>
     <row r="5">
@@ -26519,16 +26521,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33627.6</v>
+        <v>-33627.60000000001</v>
       </c>
       <c r="C6" t="n">
-        <v>-33627.6</v>
+        <v>-33627.60000000001</v>
       </c>
       <c r="D6" t="n">
         <v>-33627.6</v>
       </c>
       <c r="E6" t="n">
-        <v>-106344.94721725</v>
+        <v>-106344.9472172501</v>
       </c>
       <c r="F6" t="n">
         <v>26755.05278274998</v>
@@ -26537,22 +26539,22 @@
         <v>26755.05278274998</v>
       </c>
       <c r="H6" t="n">
-        <v>26755.05278274997</v>
+        <v>26755.05278274998</v>
       </c>
       <c r="I6" t="n">
-        <v>26755.05278274998</v>
+        <v>26755.05278275</v>
       </c>
       <c r="J6" t="n">
         <v>26755.05278274998</v>
       </c>
       <c r="K6" t="n">
-        <v>26755.05278274998</v>
+        <v>26755.05278274999</v>
       </c>
       <c r="L6" t="n">
         <v>26755.05278274998</v>
       </c>
       <c r="M6" t="n">
-        <v>26755.05278274998</v>
+        <v>26755.05278274999</v>
       </c>
       <c r="N6" t="n">
         <v>26755.05278274998</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_12_12.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_12_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-27601.46965846129</v>
+        <v>-152711.3684559379</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9920049.137121977</v>
+        <v>8041589.773721423</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>24195681.76134771</v>
+        <v>22317222.39794713</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3384070.799559813</v>
+        <v>4294344.710232233</v>
       </c>
     </row>
     <row r="11">
@@ -8528,34 +8528,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8610,28 +8610,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8847,28 +8847,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9400,28 +9400,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O20" t="n">
         <v>117.8828208804077</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9482,7 +9482,7 @@
         <v>93.17061249236157</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L21" t="n">
         <v>61.18167021676314</v>
@@ -9491,16 +9491,16 @@
         <v>51.84373129681028</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9567,13 +9567,13 @@
         <v>90.4687457914608</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P22" t="n">
         <v>101.5955875616828</v>
@@ -9649,7 +9649,7 @@
         <v>113.4004983079896</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O23" t="n">
         <v>117.8828208804077</v>
@@ -9877,25 +9877,25 @@
         <v>124.5190384721106</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P26" t="n">
         <v>135.4597561231036</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9956,25 +9956,25 @@
         <v>93.17061249236157</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10117,19 +10117,19 @@
         <v>135.370731907559</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q29" t="n">
         <v>150.3839754851235</v>
@@ -10196,19 +10196,19 @@
         <v>80.29914934735042</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M30" t="n">
         <v>51.84373129681028</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q30" t="n">
         <v>94.49434172313325</v>
@@ -10357,19 +10357,19 @@
         <v>130.6648563030561</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P32" t="n">
         <v>135.4597561231036</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10430,25 +10430,25 @@
         <v>93.17061249236157</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N33" t="n">
         <v>38.66169381481656</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10591,19 +10591,19 @@
         <v>135.370731907559</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q35" t="n">
         <v>150.3839754851235</v>
@@ -10670,19 +10670,19 @@
         <v>80.29914934735042</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q36" t="n">
         <v>94.49434172313325</v>
@@ -10822,28 +10822,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N38" t="n">
         <v>110.5750244233121</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10907,22 +10907,22 @@
         <v>80.29914934735042</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -10986,13 +10986,13 @@
         <v>94.30397654773019</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M40" t="n">
         <v>92.09541281912071</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O40" t="n">
         <v>96.22962838366004</v>
@@ -11062,25 +11062,25 @@
         <v>124.5190384721106</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11141,25 +11141,25 @@
         <v>93.17061249236157</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11232,10 +11232,10 @@
         <v>81.96869489115805</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q43" t="n">
         <v>65.34295837775146</v>
@@ -11296,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11375,28 +11375,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -11454,25 +11454,25 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q46" t="n">
         <v>65.34295837775146</v>
@@ -23120,34 +23120,34 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>99.52238</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>142.5962444444444</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>145.679503963964</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
@@ -23202,28 +23202,28 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>126.9954214393961</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>129.0132581705354</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
-        <v>134.8846762812383</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>138.9257839476051</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>127.6855444652332</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>138.4565384518428</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>137.7280040491476</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>151.5050016294458</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
         <v>177.2933913771695</v>
@@ -23439,28 +23439,28 @@
         <v>146.4662571175369</v>
       </c>
       <c r="J13" t="n">
-        <v>105.873818686614</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K13" t="n">
-        <v>94.30397654773019</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>92.09541281912071</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>81.96869489115805</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>126.4887893424616</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R13" t="n">
         <v>163.8605191622716</v>
@@ -23992,28 +23992,28 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J20" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>108.0327934026353</v>
@@ -24074,7 +24074,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -24083,16 +24083,16 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>78.03303713061706</v>
@@ -24159,13 +24159,13 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>92.09541281912071</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>81.96869489115805</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -24241,7 +24241,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -24469,25 +24469,25 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>108.0327934026353</v>
@@ -24548,25 +24548,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>78.03303713061706</v>
@@ -24709,19 +24709,19 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -24788,19 +24788,19 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -24949,19 +24949,19 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>108.0327934026353</v>
@@ -25022,25 +25022,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>78.03303713061706</v>
@@ -25183,19 +25183,19 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -25262,19 +25262,19 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -25414,28 +25414,28 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J38" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>108.0327934026353</v>
@@ -25499,22 +25499,22 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>78.03303713061706</v>
@@ -25578,13 +25578,13 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>81.96869489115805</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
@@ -25654,25 +25654,25 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>108.0327934026353</v>
@@ -25733,25 +25733,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>78.03303713061706</v>
@@ -25824,10 +25824,10 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
         <v>61.14583096471014</v>
@@ -25888,31 +25888,31 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J44" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>173.7492132756177</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S44" t="n">
         <v>193.8433399116564</v>
@@ -25967,28 +25967,28 @@
         <v>77.12765456497084</v>
       </c>
       <c r="J45" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>78.03303713061706</v>
@@ -26046,25 +26046,25 @@
         <v>146.4662571175369</v>
       </c>
       <c r="J46" t="n">
-        <v>105.873818686614</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K46" t="n">
-        <v>94.30397654773019</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>92.09541281912071</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>81.96869489115805</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
         <v>61.14583096471014</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>254093.6190439003</v>
+        <v>376275.9193600624</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>342218.3213175621</v>
+        <v>369755.2536367644</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>207960.9658420343</v>
+        <v>369755.2536367644</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>354352.1527345969</v>
+        <v>369755.2536367644</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>230720.7871041451</v>
+        <v>369755.2536367644</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>268473.3557156506</v>
+        <v>369755.2536367644</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>270648.2422229431</v>
+        <v>369755.2536367644</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>264626.5508534273</v>
+        <v>369755.2536367644</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>208624.6662921025</v>
+        <v>369755.2536367644</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>203542.5840064923</v>
+        <v>369755.2536367644</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>153645.6562144557</v>
+        <v>369755.2536367644</v>
       </c>
     </row>
   </sheetData>
@@ -26316,13 +26316,13 @@
         <v>64504.44331886782</v>
       </c>
       <c r="C2" t="n">
+        <v>64504.44331886784</v>
+      </c>
+      <c r="D2" t="n">
         <v>64504.44331886782</v>
       </c>
-      <c r="D2" t="n">
-        <v>43558.90612181147</v>
-      </c>
       <c r="E2" t="n">
-        <v>63871.71192091208</v>
+        <v>68592.32888991815</v>
       </c>
       <c r="F2" t="n">
         <v>68592.32888991815</v>
@@ -26331,31 +26331,31 @@
         <v>68592.32888991815</v>
       </c>
       <c r="H2" t="n">
-        <v>40856.16526796446</v>
+        <v>68592.32888991815</v>
       </c>
       <c r="I2" t="n">
-        <v>65951.79730668948</v>
+        <v>68592.32888991815</v>
       </c>
       <c r="J2" t="n">
-        <v>44757.84891289775</v>
+        <v>68592.32888991815</v>
       </c>
       <c r="K2" t="n">
-        <v>51229.71781772728</v>
+        <v>68592.32888991815</v>
       </c>
       <c r="L2" t="n">
-        <v>51602.55550469171</v>
+        <v>68592.32888991815</v>
       </c>
       <c r="M2" t="n">
-        <v>50570.26555563186</v>
+        <v>68592.32888991815</v>
       </c>
       <c r="N2" t="n">
-        <v>40969.94248797616</v>
+        <v>68592.32888991815</v>
       </c>
       <c r="O2" t="n">
-        <v>40098.72838187157</v>
+        <v>68592.32888991815</v>
       </c>
       <c r="P2" t="n">
-        <v>31544.96933180811</v>
+        <v>68592.32888991815</v>
       </c>
     </row>
     <row r="3">
@@ -26423,10 +26423,10 @@
         <v>64504.44331886784</v>
       </c>
       <c r="D4" t="n">
-        <v>43558.90612181147</v>
+        <v>64504.44331886784</v>
       </c>
       <c r="E4" t="n">
-        <v>33505.04703315378</v>
+        <v>38225.66400215984</v>
       </c>
       <c r="F4" t="n">
         <v>38225.66400215984</v>
@@ -26435,31 +26435,31 @@
         <v>38225.66400215984</v>
       </c>
       <c r="H4" t="n">
-        <v>10489.50038020616</v>
+        <v>38225.66400215984</v>
       </c>
       <c r="I4" t="n">
-        <v>35585.13241893116</v>
+        <v>38225.66400215984</v>
       </c>
       <c r="J4" t="n">
-        <v>14391.18402513944</v>
+        <v>38225.66400215984</v>
       </c>
       <c r="K4" t="n">
-        <v>20863.05292996897</v>
+        <v>38225.66400215984</v>
       </c>
       <c r="L4" t="n">
-        <v>21235.8906169334</v>
+        <v>38225.66400215984</v>
       </c>
       <c r="M4" t="n">
-        <v>20203.60066787354</v>
+        <v>38225.66400215984</v>
       </c>
       <c r="N4" t="n">
-        <v>10603.27760021787</v>
+        <v>38225.66400215984</v>
       </c>
       <c r="O4" t="n">
-        <v>9732.063494113263</v>
+        <v>38225.66400215984</v>
       </c>
       <c r="P4" t="n">
-        <v>1178.304444049811</v>
+        <v>38225.66400215984</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33627.60000000001</v>
+        <v>-48778.27397003477</v>
       </c>
       <c r="C6" t="n">
-        <v>-33627.60000000001</v>
+        <v>-48778.27397003476</v>
       </c>
       <c r="D6" t="n">
-        <v>-33627.6</v>
+        <v>-48778.27397003477</v>
       </c>
       <c r="E6" t="n">
-        <v>-106344.9472172501</v>
+        <v>-121154.964056364</v>
       </c>
       <c r="F6" t="n">
-        <v>26755.05278274998</v>
+        <v>11945.03594363608</v>
       </c>
       <c r="G6" t="n">
-        <v>26755.05278274998</v>
+        <v>11945.03594363608</v>
       </c>
       <c r="H6" t="n">
-        <v>26755.05278274998</v>
+        <v>11945.03594363608</v>
       </c>
       <c r="I6" t="n">
-        <v>26755.05278275</v>
+        <v>11945.03594363608</v>
       </c>
       <c r="J6" t="n">
-        <v>26755.05278274998</v>
+        <v>11945.03594363608</v>
       </c>
       <c r="K6" t="n">
-        <v>26755.05278274999</v>
+        <v>11945.03594363608</v>
       </c>
       <c r="L6" t="n">
-        <v>26755.05278274998</v>
+        <v>11945.03594363608</v>
       </c>
       <c r="M6" t="n">
-        <v>26755.05278274999</v>
+        <v>11945.03594363608</v>
       </c>
       <c r="N6" t="n">
-        <v>26755.05278274998</v>
+        <v>11945.03594363608</v>
       </c>
       <c r="O6" t="n">
-        <v>26755.05278274998</v>
+        <v>11945.03594363608</v>
       </c>
       <c r="P6" t="n">
-        <v>26755.05278274998</v>
+        <v>11945.03594363608</v>
       </c>
     </row>
   </sheetData>
